--- a/SF_US/Data_Sheets/Data_Sheet.xlsx
+++ b/SF_US/Data_Sheets/Data_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitproject\AristocratGLBIT\SF_US\Data_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFUS\AristocratGLBIT-SFUS\SF_US\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5A9FB-E976-4C0B-8855-FD72B0BC3928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D2A846-A716-4205-A2D0-C68E708872F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>AccountName</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>LeaseTerm</t>
+  </si>
+  <si>
+    <t>12 Equal Monthly Payments</t>
+  </si>
+  <si>
+    <t>12 Months</t>
+  </si>
+  <si>
+    <t>PaymentTerms</t>
   </si>
 </sst>
 </file>
@@ -93,8 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,9 +406,11 @@
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +429,14 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -428,9 +454,21 @@
       </c>
       <c r="F2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SF_US/Data_Sheets/Data_Sheet.xlsx
+++ b/SF_US/Data_Sheets/Data_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFUS\AristocratGLBIT-SFUS\SF_US\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D2A846-A716-4205-A2D0-C68E708872F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2680172B-8FD0-440E-BFA7-0A8A2184BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>PaymentTerms</t>
+  </si>
+  <si>
+    <t>EGMQuantity</t>
+  </si>
+  <si>
+    <t>ConversionQuantity</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,10 +413,11 @@
     <col min="5" max="5" width="13.1796875" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +442,14 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -456,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -465,6 +478,12 @@
       </c>
       <c r="H3" t="s">
         <v>14</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SF_US/Data_Sheets/Data_Sheet.xlsx
+++ b/SF_US/Data_Sheets/Data_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFUS\AristocratGLBIT-SFUS\SF_US\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2680172B-8FD0-440E-BFA7-0A8A2184BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DBBAB6-4F23-4F59-8D3C-12ECD5A16D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="SF_opportunity" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -79,6 +80,9 @@
   </si>
   <si>
     <t>ConversionQuantity</t>
+  </si>
+  <si>
+    <t>B04</t>
   </si>
 </sst>
 </file>
@@ -399,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,6 +490,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SF_US/Data_Sheets/Data_Sheet.xlsx
+++ b/SF_US/Data_Sheets/Data_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFUS\AristocratGLBIT-SFUS\SF_US\Data_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AristocratGLBIT-SFUS-Ashu_16_06_2025_V2\AristocratGLBIT-SFUS-Ashu_16_06_2025\SF_US\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DBBAB6-4F23-4F59-8D3C-12ECD5A16D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6374CB-9ED8-40FF-9C92-5CA4F8D03230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="SF_opportunity" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -406,7 +405,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,9 +415,10 @@
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" customWidth="1"/>
     <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -493,6 +493,18 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>

--- a/SF_US/Data_Sheets/Data_Sheet.xlsx
+++ b/SF_US/Data_Sheets/Data_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AristocratGLBIT-SFUS-Ashu_16_06_2025_V2\AristocratGLBIT-SFUS-Ashu_16_06_2025\SF_US\Data_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AristocratGLBIT-SFUS-Ashu_16_06_2025\SF_US\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6374CB-9ED8-40FF-9C92-5CA4F8D03230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181B43A-8BBB-4530-BBB4-A9DEA57C7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/SF_US/Data_Sheets/Data_Sheet.xlsx
+++ b/SF_US/Data_Sheets/Data_Sheet.xlsx
@@ -1,87 +1,579 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitproject\AristocratGLBIT\SF_US\Data_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SA118193\Desktop\SFUS\AristocratGLBIT-SFUS\SF_US\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F5A9FB-E976-4C0B-8855-FD72B0BC3928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35488074-4F95-4283-B118-71D030476C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{8F5495E8-1447-494D-B88E-54A73AAF3D97}"/>
   </bookViews>
   <sheets>
-    <sheet name="SF_opportunity" sheetId="1" r:id="rId1"/>
+    <sheet name="SF_TestData" sheetId="4" r:id="rId1"/>
+    <sheet name="SF_TestData28" sheetId="1" r:id="rId2"/>
+    <sheet name="SF_TestData29" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>TestCaseID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="146">
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>OpportunityName</t>
+  </si>
+  <si>
+    <t>GamingClassification</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>GamingClassification</t>
-  </si>
-  <si>
     <t>MarketSegment</t>
   </si>
   <si>
     <t>LeadSource</t>
   </si>
   <si>
+    <t>Class III</t>
+  </si>
+  <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>Class III</t>
+    <t>Create New Opportunity Record</t>
+  </si>
+  <si>
+    <t>EGM</t>
+  </si>
+  <si>
+    <t>Outright - Sale New</t>
+  </si>
+  <si>
+    <t>S.N.O</t>
+  </si>
+  <si>
+    <t>PREMIUM PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Product Cabinet</t>
+  </si>
+  <si>
+    <t>Selling Model</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Freight - (Freight)</t>
+  </si>
+  <si>
+    <t>PGD-0243|01</t>
+  </si>
+  <si>
+    <t>No Promotion Selected - (PROMO-NO-PROMO)</t>
+  </si>
+  <si>
+    <t>QUINAULT BEACH RESORT AND CASINO</t>
   </si>
   <si>
     <t>Regular</t>
   </si>
   <si>
-    <t>B02</t>
+    <t>Game sales - Outright - Outright - Sale New WA</t>
+  </si>
+  <si>
+    <t>WHEELING ISLAND RACETRACK AND GAMING CENTER</t>
+  </si>
+  <si>
+    <t>WVFEE</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>Missing fees: WVFEE</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Game Theme</t>
+  </si>
+  <si>
+    <t>Game Title</t>
+  </si>
+  <si>
+    <t>Topper</t>
+  </si>
+  <si>
+    <t>Button Panel</t>
+  </si>
+  <si>
+    <t>Player Tracker</t>
+  </si>
+  <si>
+    <t>Player Tracker Install</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Acceptor </t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard Meter </t>
+  </si>
+  <si>
+    <t>EZ Pay</t>
+  </si>
+  <si>
+    <t>Denom</t>
+  </si>
+  <si>
+    <t>AFT/EFT</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>Candle Color</t>
+  </si>
+  <si>
+    <t>Ticket Validation</t>
+  </si>
+  <si>
+    <t>Audit Switch</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>SellingModel</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LicenseType</t>
+  </si>
+  <si>
+    <t>ProgressiveType</t>
+  </si>
+  <si>
+    <t>GameTheme_GPP</t>
+  </si>
+  <si>
+    <t>Model_PGD</t>
+  </si>
+  <si>
+    <t>GameTitle_GPG</t>
+  </si>
+  <si>
+    <t>Topper_TPP</t>
+  </si>
+  <si>
+    <t>ButtonPanel_BTN</t>
+  </si>
+  <si>
+    <t>BillsAccepted</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Gaming Device (GD)</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
+    <t>TBXLineItemCheck</t>
+  </si>
+  <si>
+    <t>TopBox</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>Mainboard</t>
+  </si>
+  <si>
+    <t>TPPLineItemCheck</t>
+  </si>
+  <si>
+    <t>TopBoxDisplay</t>
+  </si>
+  <si>
+    <t>Candle</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>MainMonitorDisplay</t>
+  </si>
+  <si>
+    <t>PrinterFirmware</t>
+  </si>
+  <si>
+    <t>TicketValidation</t>
+  </si>
+  <si>
+    <t>BillAcceptorFirmware</t>
+  </si>
+  <si>
+    <t>RunCopyProtection</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Bootloader</t>
+  </si>
+  <si>
+    <t>SetChip</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Payment Term</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
   <si>
     <t>BELLAGIO LAS VEGAS</t>
   </si>
   <si>
-    <t>AccountName</t>
+    <t xml:space="preserve">WHEELING ISLAND RACETRACK AND GAMING CENTER </t>
+  </si>
+  <si>
+    <t>Contract Only</t>
+  </si>
+  <si>
+    <t>CONAN THE BARBARIAN SAP - (GPP-1000|01)</t>
+  </si>
+  <si>
+    <t>CONAN THE BARBARIAN SAP - (GT-CONAN THE BARBARIAN)</t>
+  </si>
+  <si>
+    <t>TPP000027|01 - TPP NONE OPTION</t>
+  </si>
+  <si>
+    <t>NO BUTTON PANEL - (BTN000027|01)</t>
+  </si>
+  <si>
+    <t>IGT NEXGEN ADV LCD MAG MARS BLACK - (PLY001393|01)</t>
+  </si>
+  <si>
+    <t>CUSTOMER INSTALL</t>
+  </si>
+  <si>
+    <t>JCM GEN5 MARSX - (TKT000158-RDY|01)</t>
+  </si>
+  <si>
+    <t>BA READY MARS - (BA000702|01)</t>
+  </si>
+  <si>
+    <t>STANDARD FINISH NO LAMINATION - (FIN000004|01)</t>
+  </si>
+  <si>
+    <t>MARSX PORTRAIT CORONA ASSEMBLY - (TRM000200|01)</t>
+  </si>
+  <si>
+    <t>NONE - NO METER REQUIRED - (HME000000|01)</t>
+  </si>
+  <si>
+    <t>EZPAY FIBER OPTICS NONE - (EZP000001|01)</t>
+  </si>
+  <si>
+    <t>1.00 - (DENOM_9)</t>
+  </si>
+  <si>
+    <t>AFT - (AFT)</t>
+  </si>
+  <si>
+    <t>09 - (VAR_09)</t>
+  </si>
+  <si>
+    <t>FILM CANDLE LIGHT TOWER 4 WHITE-WHITE - (07-48347-03|01)</t>
+  </si>
+  <si>
+    <t>NONE - USE OPTION WHEN THERE IS NO TKT - (TKV000011|01)</t>
+  </si>
+  <si>
+    <t>Standard Audit Switch w/Barrel Key - (AUDSW_2)</t>
+  </si>
+  <si>
+    <t>Outright Sales</t>
+  </si>
+  <si>
+    <t>2300 PASEO VERDE PKWY, HENDERSON, Nevada 89052-2672</t>
+  </si>
+  <si>
+    <t>PI-NONE - None</t>
+  </si>
+  <si>
+    <t>GPP-0936|01 - CRAZY CHICKENS SAP</t>
+  </si>
+  <si>
+    <t>PGD-0243|01 - MARSX PORTRAIT GEN9</t>
+  </si>
+  <si>
+    <t>1.02-68644|01 - CRAZY CHICKENS</t>
+  </si>
+  <si>
+    <t>BTN000027|01 - NO BUTTON PANEL</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>MARSX UPRIGHT</t>
+  </si>
+  <si>
+    <t>GAMING DEVICE MARSX PORTRAIT GEN9</t>
+  </si>
+  <si>
+    <t>MARSX PORTRAIT</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TBX NONE OPTION</t>
+  </si>
+  <si>
+    <t>SPC NONE</t>
+  </si>
+  <si>
+    <t>MAINBOARD OPTION NOT APPLICABLE WHEN MAINBOARD IS IN OTHER OPTION</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TPP NONE OPTION</t>
+  </si>
+  <si>
+    <t>TOP BOX DISPLAY NONE</t>
+  </si>
+  <si>
+    <t>FILM CANDLE LIGHT TOWER 4 WHITE-WHITE</t>
+  </si>
+  <si>
+    <t>CONDITIONAL NONE OPTION ALL</t>
+  </si>
+  <si>
+    <t>MAIN VIDEO DISPLAY NONE</t>
+  </si>
+  <si>
+    <t>JCM GEN5 5R001A729</t>
+  </si>
+  <si>
+    <t>TICKET VALIDATION TITO ENABLED G7 G8 G9</t>
+  </si>
+  <si>
+    <t>NONE MARSX</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>SYSTEM BASE 6.13.0-1.00.4</t>
+  </si>
+  <si>
+    <t>LINUX X.6A.1</t>
+  </si>
+  <si>
+    <t>BOOTLOADER 7.0</t>
+  </si>
+  <si>
+    <t>SET CHIP 7.02.71.01</t>
+  </si>
+  <si>
+    <t>GEN8 RELM</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>PROGRESSIVE CONTROLLER</t>
+  </si>
+  <si>
+    <t>Rebate</t>
+  </si>
+  <si>
+    <t>REBATE-1</t>
+  </si>
+  <si>
+    <t>12 Equal Monthly Payments</t>
+  </si>
+  <si>
+    <t>Chelsea Sutton</t>
+  </si>
+  <si>
+    <t>Delivery Address state WA requires Selling Model GSVLTWA for EGM line items.</t>
+  </si>
+  <si>
+    <t>Notification1</t>
+  </si>
+  <si>
+    <t>Notification2</t>
+  </si>
+  <si>
+    <t>Missing fees: WA-FEE001|01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=".00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D0D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE2D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -89,14 +581,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -123,39 +814,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,9 +879,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -223,6 +931,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -284,13 +1009,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -299,6 +1017,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -363,74 +1088,796 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045530A7-9C9B-4349-94E4-DDEE42F96F75}">
+  <dimension ref="A1:BY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="BO2" sqref="BO2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BX1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY1" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:77" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR2" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="AS2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF2" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR2" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV2" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY2" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" tooltip="BELLAGIO LAS VEGAS" display="https://aristocrat-global--qa1.sandbox.lightning.force.com/lightning/r/0017F00001Mzc75QAB/view" xr:uid="{37A5B1C7-7982-4E5E-B1E4-D85F92CBFA1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5097227-2C5E-4063-9C54-BE42EBA6B184}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="28.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="9" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="27.90625" customWidth="1"/>
+    <col min="12" max="15" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D7" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://aristocrat-global--qa1.sandbox.lightning.force.com/lightning/r/Account/0017F00001unsFjQAI/view" xr:uid="{4034C1CA-6586-4734-AD19-5EDEAA05A02C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63898C54-92BA-4F7F-88A1-22938932CC4A}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="17" max="17" width="16.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SF_US/Data_Sheets/Data_Sheet.xlsx
+++ b/SF_US/Data_Sheets/Data_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AristocratGLBIT-SFUS-Ashu_16_06_2025\SF_US\Data_Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TestComplete_Namemapping\AristocratGLBIT-SFUS-Ashu_16_06_2025\SF_US\Data_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181B43A-8BBB-4530-BBB4-A9DEA57C7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200299F-13E2-401D-AAAB-E2D0EAE26CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -82,6 +82,66 @@
   </si>
   <si>
     <t>B04</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>GameTheme</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>GameTitle</t>
+  </si>
+  <si>
+    <t>Topper</t>
+  </si>
+  <si>
+    <t>Denom</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>CandleColor</t>
+  </si>
+  <si>
+    <t>TicketValidation</t>
+  </si>
+  <si>
+    <t>AuditSwitch</t>
+  </si>
+  <si>
+    <t>ButtonPanel</t>
+  </si>
+  <si>
+    <t>UnitDisc</t>
+  </si>
+  <si>
+    <t>TIGER WEALTH - (GT-TIGER WEALTH)</t>
+  </si>
+  <si>
+    <t>TOPPER 19.5 INCH LCD HELIX XT LATAM - (TPP000127-LATAM|01)</t>
+  </si>
+  <si>
+    <t>BTN PANEL 13 LCD HELIX SLANT AND UPRIGHT REFURB - (TBTN000079|01)</t>
+  </si>
+  <si>
+    <t>.01 - (DENOM_3)</t>
+  </si>
+  <si>
+    <t>0 - (VAR_0)</t>
+  </si>
+  <si>
+    <t>FILM CANDLE BLANK PLATE CHAMPAGNE - (CAN000015|01)</t>
+  </si>
+  <si>
+    <t>NONE - USE OPTION WHEN THERE IS NO TKT - (TKV000011|01)</t>
+  </si>
+  <si>
+    <t>2341 Audit Switch - IGT Flat Key - (AUDSW_3)</t>
   </si>
 </sst>
 </file>
@@ -402,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,7 +481,7 @@
     <col min="10" max="10" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +512,38 @@
       <c r="J1" t="s">
         <v>17</v>
       </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -473,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -490,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -508,6 +598,41 @@
       </c>
       <c r="F4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
